--- a/Incident Classification Framework (Community) - vVERIS.xlsx
+++ b/Incident Classification Framework (Community) - vVERIS.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="261">
   <si>
-    <t>🏛️ ARGOREX | Incident Governance Framework (Community)</t>
+    <t>🏛️ ARGOREX | Incident Classification Framework (Community)</t>
   </si>
   <si>
     <r>
@@ -92,8 +92,7 @@
     <t>❓ How to use it?</t>
   </si>
   <si>
-    <t>Log Incidents: Use the 'Incident' tab to record events using the VERIS-aligned taxonomy.
-Reporting: The data structure is ready to be connected to any visualization engine (Power BI, Tableau, or Google Sheets).</t>
+    <t>Add incidents in the 'Incident' tab and check the stats in the 'Dashboard' tab.</t>
   </si>
   <si>
     <t>🌐 Open Source Commitment</t>
